--- a/pred_ohlcv/54_21/2020-01-12 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-8098209.3688</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-9098209.368799999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-9098041.368799999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-10189132.249</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-11116873.1102</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-11115682.7197</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-11116020.7197</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-11116020.7197</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-11106513.5535</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-11113900.8759</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-11112886.8759</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-11162758.4475</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-11162492.0986</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-11162662.0986</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-11003508.5312</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-11003508.5312</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-11786651.127</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-11786651.127</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-11729852.3035</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-11729852.3035</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-11731852.867</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-11701802.6876</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-11867726.0503</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-11867726.0503</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-12070542.7252</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-12070374.7252</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-15014995.0975</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-15014995.0975</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-14612194.9993</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-14612194.9993</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-14612194.9993</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-15553385.4449</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-15304634.7907</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-15304634.7907</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-15304634.7907</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-15765079.1134</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-15534856.9521</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-31406689.9907</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-31405578.9907</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-30985423.7845</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-31273124.3141</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-31221043.90172887</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-31221043.90172887</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-31221043.90172887</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-31221043.90172887</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-31425056.14942887</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-31925371.60802887</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-31925371.60802887</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-31925371.60802887</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-31553373.7966</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-31966228.28792887</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-31966228.28792887</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-31965697.28792887</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-32513807.30452887</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-31280241.18172887</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-29542963.89486689</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-33902909.46836466</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-33902909.46836466</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-33921720.33026467</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-33921720.33026467</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-33912832.33026467</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-33912832.33026467</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-30852704.14885579</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-30852527.14885579</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-30832529.05025579</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-30832529.05025579</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-30832529.05025579</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 FNB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-8098209.3688</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-9098209.368799999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-9098041.368799999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-10189132.249</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-11116873.1102</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-11115682.7197</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-11116020.7197</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-11116020.7197</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-11113900.8759</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-11112886.8759</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-11162758.4475</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-11162492.0986</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-11162662.0986</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-11003508.5312</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-11003508.5312</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-11786651.127</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-11786651.127</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-11729852.3035</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-11729852.3035</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-11731852.867</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-11701802.6876</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-11867726.0503</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-11867726.0503</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-12070542.7252</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-15014995.0975</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-15014995.0975</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-14612194.9993</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-14612194.9993</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-15553385.4449</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-15304634.7907</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-15765079.1134</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-31406689.9907</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-31405578.9907</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-30985423.7845</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-30985423.7845</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-31273124.3141</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-31221043.90172887</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-31221043.90172887</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-31221043.90172887</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-31221043.90172887</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-31425056.14942887</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-31925371.60802887</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-31925371.60802887</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-31925371.60802887</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-31553373.7966</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-30956861.26052887</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-30956861.26052887</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-31033547.97502887</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-31746309.69262887</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-31966228.28792887</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-31965697.28792887</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-32513807.30452887</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-31363115.00962887</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-31280241.18172887</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-31279130.18172887</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-30922686.5740669</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-30847099.06716689</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-30847099.06716689</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-30847099.06716689</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-30889856.57946689</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-30880667.06836689</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-30880667.06836689</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-30880667.06836689</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-30939756.62746689</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-30497694.05846689</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-30457424.93366689</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-28975655.12716689</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-28918256.36816689</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-30026031.1424669</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-29542963.89486689</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-36408257.36417203</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-36576106.43927203</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-36575056.76877203</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-36588425.84097203</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-36588425.84097203</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-36588225.84097203</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-36607996.68787203</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-36607796.68787203</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-38833296.04397203</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-38833296.04397203</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-38833296.04397203</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-38515337.41737203</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-40294662.98907203</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-40290662.98907203</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-40308260.72127203</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-40308260.72127203</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-40308260.72127203</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-40913439.79097203</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-40904615.79097203</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-40904697.79097203</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-40804697.79097203</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-40805367.13537204</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-40805367.13537204</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-40973390.62467203</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-40973567.62467203</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-40973567.62467203</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-32641615.12487203</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-29307771.06706467</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-29318544.06706467</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-29468719.83996467</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-32970788.12726466</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-32943488.51286466</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-33422581.22396467</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-33363180.53166467</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-33232277.63196467</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-33231209.32436467</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-33231386.32436467</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-33231386.32436467</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-33023506.87206467</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-33023506.87206467</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-33017982.55376467</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-33171467.37976467</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-33168967.37976467</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-33180650.07626467</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-34044359.23806467</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-34041859.23806467</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-34040082.23806467</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-34038582.23806467</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-34038582.23806467</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-34038582.23806467</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-33939413.29156467</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-33937555.46836466</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-33932555.46836466</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-33932732.46836466</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-33932732.46836466</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-33902732.46836466</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-33912742.33026467</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-33913992.18076467</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-33899831.27926467</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-33907980.97096466</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-33907803.97096466</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-33907626.97096466</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-33907626.97096466</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-33907626.97096466</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-33903126.97096466</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-33903303.97096466</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-33902103.97096466</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-33902103.97096466</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-33901926.97096466</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-33671464.64376466</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-32792761.37886466</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-32792761.37886466</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-32791298.37886466</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-32791485.79336466</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-32982701.97986466</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-32982701.97986466</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-32982701.97986466</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-32982878.97986466</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-32982701.97986466</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-32977701.97986466</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-32947701.97986466</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-32944701.97986466</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-32473841.36416467</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-32473841.36416467</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-32473841.36416467</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-32469397.36416467</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-32475130.36416467</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-32575361.16506467</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-30802287.71826467</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-30802287.71826467</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-30802287.71826467</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-30802287.71826467</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-30802464.71826467</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-30802287.71826467</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-30802120.71826467</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-30801620.71826467</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-30801797.71826467</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-30801797.71826467</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-30800686.71826467</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-30800686.71826467</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-30697686.71826467</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-30697686.71826467</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-29784951.32336466</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-29784145.69976467</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-29784145.69976467</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-29787328.11276466</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-29737831.39726466</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-29738361.79946466</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-30222017.32096466</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-30222017.32096466</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-30242239.32096466</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-30303429.88816466</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-30364773.05586466</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-30364773.05586466</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-30395040.05586466</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-30386055.68446466</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-30433366.68446466</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-30491369.81226466</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-30512309.14896466</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-30512309.14896466</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-30578594.32486466</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-30578594.32486466</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-30529534.98706466</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-30514680.98706466</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-30515180.98706466</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-31001269.69996466</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-30945197.13476466</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-30941697.13476466</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-30845292.80630512</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-30845292.80630512</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-30845292.80630512</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-30748581.14885579</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-30748581.14885579</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-30863346.14885579</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-30862235.14885579</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-30860615.14885579</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-30857204.14885579</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-30857804.14885579</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-30832529.05025579</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-30731418.05025579</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-30730307.05025579</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-30730307.05025579</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-30890901.08085579</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-31694802.45635579</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-31689091.45635579</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-31689391.45635579</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-31689391.45635579</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-31686058.45635579</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-31686828.45635579</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-31594085.18085579</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-31623085.18085579</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-31623085.18085579</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-31621202.70185579</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-31621202.70185579</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-31621202.70185579</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-31621025.70185579</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-31880212.62195579</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-31880212.62195579</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-31877990.62195579</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-31847990.62195579</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-31807127.08485579</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-32111145.19925579</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-32112345.19925579</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-32112168.19925579</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-32112168.19925579</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-32114361.9255558</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-32152817.21465579</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-32152817.21465579</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-32152217.21465579</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-32182217.21465579</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-32180740.21465579</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-32167751.7224558</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-32166308.7224558</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-32166752.7224558</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-32698958.1591558</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-32024696.1943558</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-32055844.3627558</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-32061694.7125558</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-32061694.7125558</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-32061694.7125558</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-31931016.2811558</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-31931016.2811558</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-31931016.2811558</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-31930839.2811558</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-31940949.2970558</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-31994342.7592558</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-32017568.9152558</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-31992740.7011558</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-31992563.7011558</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-31992563.7011558</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-31993413.3394048</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-32114356.6722048</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-32126682.5529048</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-32126505.5529048</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-32126505.5529048</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-32112215.86070479</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-32538654.30114395</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-32538654.30114395</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-32397991.48634395</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-32389114.48634395</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-32302545.01994395</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-32330499.01994395</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-32330322.01994395</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-32681338.97594395</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-32681338.97594395</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-33485240.35154395</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-33485063.35154395</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
